--- a/DesignTemplate/Instructions.xlsx
+++ b/DesignTemplate/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Final_228\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D306A03-E72E-449F-9355-1606B345BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FED814-57F4-4140-B039-1649CA59DD91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2895" windowWidth="18345" windowHeight="11160" xr2:uid="{FBA01C46-3028-4F53-933B-E5E24FF79D98}"/>
+    <workbookView xWindow="2550" yWindow="2445" windowWidth="16380" windowHeight="11220" xr2:uid="{FBA01C46-3028-4F53-933B-E5E24FF79D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="173">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -417,6 +417,207 @@
   </si>
   <si>
     <t>to enable n x n</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>MP RA RB DR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>4b'aaaa</t>
+  </si>
+  <si>
+    <t>4'bdddd</t>
+  </si>
+  <si>
+    <t>4'bnnnn</t>
+  </si>
+  <si>
+    <t>4d'4</t>
+  </si>
+  <si>
+    <t>4'd1</t>
+  </si>
+  <si>
+    <t>4'd5</t>
+  </si>
+  <si>
+    <t>4'd2</t>
+  </si>
+  <si>
+    <t>4'd6</t>
+  </si>
+  <si>
+    <t>4'd3</t>
+  </si>
+  <si>
+    <t>4'd7</t>
+  </si>
+  <si>
+    <t>t=0</t>
+  </si>
+  <si>
+    <t>t=1</t>
+  </si>
+  <si>
+    <t>t=2</t>
+  </si>
+  <si>
+    <t>t=3</t>
+  </si>
+  <si>
+    <t>PC (address)</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier </t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>4'd12</t>
+  </si>
+  <si>
+    <t>4d'0</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>RB2</t>
+  </si>
+  <si>
+    <t>RB3</t>
+  </si>
+  <si>
+    <t>RB4</t>
+  </si>
+  <si>
+    <t>MP DR RA RB1 RB2 RB3 RB4</t>
+  </si>
+  <si>
+    <t>BA1</t>
+  </si>
+  <si>
+    <t>BA2</t>
+  </si>
+  <si>
+    <t>BA3</t>
+  </si>
+  <si>
+    <t>BA4</t>
+  </si>
+  <si>
+    <t>M17</t>
   </si>
 </sst>
 </file>
@@ -466,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -474,19 +675,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFFBAFF-3CF9-481C-A5DF-58673CFE025E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,12 +1107,13 @@
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
@@ -833,11 +1124,13 @@
     <col min="30" max="30" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="5.140625" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -848,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -862,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -914,21 +1207,21 @@
       <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" t="s">
         <v>32</v>
       </c>
@@ -950,41 +1243,8 @@
       <c r="AJ3" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1051,8 +1311,20 @@
       <c r="AJ4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AN4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1071,15 +1343,18 @@
       <c r="G5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -1095,7 +1370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1141,7 +1416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1164,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -1178,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -1191,8 +1466,41 @@
       <c r="H11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>72</v>
       </c>
@@ -1206,8 +1514,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E13" t="s">
@@ -1223,7 +1531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>74</v>
       </c>
@@ -1237,7 +1545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>75</v>
       </c>
@@ -1254,7 +1562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>80</v>
       </c>
@@ -1564,16 +1872,728 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" t="s">
+        <v>165</v>
+      </c>
+      <c r="M40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+      <c r="L46" t="s">
+        <v>161</v>
+      </c>
+      <c r="M46" t="s">
+        <v>114</v>
+      </c>
+      <c r="N46" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>117</v>
+      </c>
+      <c r="R46" t="s">
+        <v>118</v>
+      </c>
+      <c r="S46" t="s">
+        <v>119</v>
+      </c>
+      <c r="T46" t="s">
+        <v>120</v>
+      </c>
+      <c r="W46" t="s">
+        <v>121</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="9"/>
+      <c r="AD46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" t="s">
+        <v>161</v>
+      </c>
+      <c r="M47" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R47" t="s">
+        <v>118</v>
+      </c>
+      <c r="S47" t="s">
+        <v>119</v>
+      </c>
+      <c r="T47" t="s">
+        <v>120</v>
+      </c>
+      <c r="W47" t="s">
+        <v>122</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="9"/>
+      <c r="AD47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" t="s">
+        <v>161</v>
+      </c>
+      <c r="M48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>117</v>
+      </c>
+      <c r="R48" t="s">
+        <v>118</v>
+      </c>
+      <c r="S48" t="s">
+        <v>119</v>
+      </c>
+      <c r="T48" t="s">
+        <v>120</v>
+      </c>
+      <c r="W48" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="9"/>
+      <c r="AD48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" t="s">
+        <v>114</v>
+      </c>
+      <c r="N49" t="s">
+        <v>162</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R49" t="s">
+        <v>118</v>
+      </c>
+      <c r="S49" t="s">
+        <v>119</v>
+      </c>
+      <c r="T49" t="s">
+        <v>120</v>
+      </c>
+      <c r="W49" t="s">
+        <v>124</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB49" s="9"/>
+      <c r="AD49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="X50" s="7"/>
+      <c r="Y50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="X51" s="7"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="X52" s="7"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="X53" s="10"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD59" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD60" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AD61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AE62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AE63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="AE64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE65" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
